--- a/import.xlsx
+++ b/import.xlsx
@@ -11,42 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Babacar Sy</t>
+    <t>assane cousin</t>
   </si>
   <si>
-    <t>babs@gmail.com</t>
+    <t>assane@gmail.com</t>
   </si>
   <si>
-    <t>babs</t>
-  </si>
-  <si>
-    <t>Bassirou Who</t>
-  </si>
-  <si>
-    <t>bachir@gmail.com</t>
-  </si>
-  <si>
-    <t>bachir</t>
-  </si>
-  <si>
-    <t>Ibrahima Diao</t>
-  </si>
-  <si>
-    <t>diao@gmail.com</t>
-  </si>
-  <si>
-    <t>diao</t>
-  </si>
-  <si>
-    <t>Bbacar Diop</t>
-  </si>
-  <si>
-    <t>diopbichri@gmail.com</t>
-  </si>
-  <si>
-    <t>dg</t>
+    <t>assane</t>
   </si>
 </sst>
 </file>
@@ -314,39 +287,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/import.xlsx
+++ b/import.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>assane cousin</t>
+    <t>ouseynou cousin</t>
   </si>
   <si>
-    <t>assane@gmail.com</t>
+    <t>ousseynou@gmail.com</t>
   </si>
   <si>
-    <t>assane</t>
+    <t>ousseynou</t>
   </si>
 </sst>
 </file>

--- a/import.xlsx
+++ b/import.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
-    <t>ouseynou cousin</t>
+    <t>ibou</t>
   </si>
   <si>
-    <t>ousseynou@gmail.com</t>
-  </si>
-  <si>
-    <t>ousseynou</t>
+    <t>ibou@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -284,7 +281,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/import.xlsx
+++ b/import.xlsx
@@ -11,12 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>ibou</t>
-  </si>
-  <si>
-    <t>ibou@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>thiamE</t>
+  </si>
+  <si>
+    <t>thiaGm@gmail.com</t>
+  </si>
+  <si>
+    <t>thiamG</t>
+  </si>
+  <si>
+    <t>thiofH</t>
+  </si>
+  <si>
+    <t>thiofH@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -281,7 +290,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
